--- a/src/mongodb/xlsx/data.xlsx
+++ b/src/mongodb/xlsx/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexahn/Documents/kh_proj/src/mongodb/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiyoungpark/Documents/kh_proj/src/mongodb/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,15 +80,6 @@
     <t>ID_1</t>
   </si>
   <si>
-    <t>{'2017-06-10': {'식품명_1': 3, '식품명_2': 1}}</t>
-  </si>
-  <si>
-    <t>{'2017-06-10': {'식품명_5': 1}}</t>
-  </si>
-  <si>
-    <t>{'2017-06-10': {'식품명_1': 2, '식품명_2': 4, '식품명_4': 1}}</t>
-  </si>
-  <si>
     <t>남</t>
   </si>
   <si>
@@ -104,15 +95,6 @@
     <t>ID_2</t>
   </si>
   <si>
-    <t>{'2017-06-05': {'식품명_1': 3, '식품명_3': 1}, '2017-06-08': {'식품명_1': 3}}</t>
-  </si>
-  <si>
-    <t>{'2017-06-05': {'식품명_1': 1}, '2017-06-08': {'식품명_1': 1}}</t>
-  </si>
-  <si>
-    <t>{'2017-06-05': {'식품명_2': 2, '식품명_4': 1}, '2017-06-08': {'식품명_2': 2, '식품명_5': 4, '식품명_4': 1}}</t>
-  </si>
-  <si>
     <t>여</t>
   </si>
   <si>
@@ -1677,6 +1659,24 @@
   </si>
   <si>
     <t>['2017-06-05', '2017-06-08']</t>
+  </si>
+  <si>
+    <t>{'2017-06-10': {'식품명_1': -3, '식품명_2': -1}}</t>
+  </si>
+  <si>
+    <t>{'2017-06-05': {'식품명_1': -3, '식품명_3': -1}, '2017-06-08': {'식품명_1': -3}}</t>
+  </si>
+  <si>
+    <t>{'2017-06-10': {'식품명_5': -1}}</t>
+  </si>
+  <si>
+    <t>{'2017-06-05': {'식품명_1': -1}, '2017-06-08': {'식품명_1': -1}}</t>
+  </si>
+  <si>
+    <t>{'2017-06-10': {'식품명_1': -2, '식품명_2': -4, '식품명_4': -1}}</t>
+  </si>
+  <si>
+    <t>{'2017-06-05': {'식품명_2': -2, '식품명_4': -1}, '2017-06-08': {'식품명_2': -2, '식품명_5': 4, '식품명_4': -1}}</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2167,16 +2167,16 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>543</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>545</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>547</v>
       </c>
       <c r="F2">
         <v>50</v>
@@ -2185,10 +2185,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -2197,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="O2">
         <v>180</v>
@@ -2211,19 +2211,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>544</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>546</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>548</v>
       </c>
       <c r="F3">
         <v>49</v>
@@ -2232,10 +2232,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="O3">
         <v>170</v>
@@ -2274,141 +2274,141 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>64</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Q2" t="s">
         <v>65</v>
       </c>
-      <c r="L2" t="s">
+      <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
         <v>68</v>
       </c>
-      <c r="O2" t="s">
+      <c r="U2" t="s">
         <v>69</v>
-      </c>
-      <c r="P2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" t="s">
-        <v>75</v>
       </c>
       <c r="V2">
         <v>3.39</v>
@@ -2422,67 +2422,67 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
         <v>79</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>81</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>82</v>
       </c>
-      <c r="H3" t="s">
+      <c r="N3" t="s">
         <v>83</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>84</v>
       </c>
-      <c r="J3" t="s">
+      <c r="P3" t="s">
         <v>85</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Q3" t="s">
         <v>86</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
         <v>88</v>
       </c>
-      <c r="N3" t="s">
+      <c r="T3" t="s">
         <v>89</v>
       </c>
-      <c r="O3" t="s">
+      <c r="U3" t="s">
         <v>90</v>
-      </c>
-      <c r="P3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" t="s">
-        <v>94</v>
-      </c>
-      <c r="T3" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" t="s">
-        <v>96</v>
       </c>
       <c r="V3">
         <v>21.24</v>
@@ -2496,67 +2496,67 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
         <v>97</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
         <v>99</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
         <v>100</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>101</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>102</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
         <v>103</v>
       </c>
-      <c r="H4" t="s">
+      <c r="N4" t="s">
         <v>104</v>
       </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>105</v>
       </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
         <v>106</v>
       </c>
-      <c r="K4" t="s">
+      <c r="Q4" t="s">
         <v>107</v>
       </c>
-      <c r="L4" t="s">
+      <c r="R4" t="s">
         <v>108</v>
       </c>
-      <c r="M4" t="s">
+      <c r="S4" t="s">
         <v>109</v>
       </c>
-      <c r="N4" t="s">
+      <c r="T4" t="s">
         <v>110</v>
       </c>
-      <c r="O4" t="s">
+      <c r="U4" t="s">
         <v>111</v>
-      </c>
-      <c r="P4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S4" t="s">
-        <v>115</v>
-      </c>
-      <c r="T4" t="s">
-        <v>116</v>
-      </c>
-      <c r="U4" t="s">
-        <v>117</v>
       </c>
       <c r="V4">
         <v>3.35</v>
@@ -2570,67 +2570,67 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
         <v>118</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
         <v>120</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
         <v>121</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
         <v>122</v>
       </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>123</v>
       </c>
-      <c r="G5" t="s">
+      <c r="M5" t="s">
         <v>124</v>
       </c>
-      <c r="H5" t="s">
+      <c r="N5" t="s">
         <v>125</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" t="s">
         <v>126</v>
       </c>
-      <c r="J5" t="s">
+      <c r="Q5" t="s">
         <v>127</v>
       </c>
-      <c r="K5" t="s">
+      <c r="R5" t="s">
         <v>128</v>
       </c>
-      <c r="L5" t="s">
+      <c r="S5" t="s">
         <v>129</v>
       </c>
-      <c r="M5" t="s">
+      <c r="T5" t="s">
         <v>130</v>
       </c>
-      <c r="N5" t="s">
+      <c r="U5" t="s">
         <v>131</v>
-      </c>
-      <c r="O5" t="s">
-        <v>111</v>
-      </c>
-      <c r="P5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U5" t="s">
-        <v>137</v>
       </c>
       <c r="V5">
         <v>40.840000000000003</v>
@@ -2644,67 +2644,67 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" t="s">
         <v>138</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>139</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>140</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
         <v>141</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>142</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>143</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>144</v>
       </c>
-      <c r="H6" t="s">
+      <c r="N6" t="s">
         <v>145</v>
       </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>146</v>
       </c>
-      <c r="J6" t="s">
+      <c r="P6" t="s">
         <v>147</v>
       </c>
-      <c r="K6" t="s">
+      <c r="Q6" t="s">
         <v>148</v>
       </c>
-      <c r="L6" t="s">
+      <c r="R6" t="s">
         <v>149</v>
       </c>
-      <c r="M6" t="s">
+      <c r="S6" t="s">
         <v>150</v>
       </c>
-      <c r="N6" t="s">
+      <c r="T6" t="s">
         <v>151</v>
       </c>
-      <c r="O6" t="s">
+      <c r="U6" t="s">
         <v>152</v>
-      </c>
-      <c r="P6" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>154</v>
-      </c>
-      <c r="R6" t="s">
-        <v>155</v>
-      </c>
-      <c r="S6" t="s">
-        <v>156</v>
-      </c>
-      <c r="T6" t="s">
-        <v>157</v>
-      </c>
-      <c r="U6" t="s">
-        <v>158</v>
       </c>
       <c r="V6">
         <v>31.25</v>
@@ -2718,67 +2718,67 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
         <v>159</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
         <v>160</v>
       </c>
-      <c r="C7" t="s">
+      <c r="I7" t="s">
         <v>161</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J7" t="s">
         <v>162</v>
       </c>
-      <c r="E7" t="s">
+      <c r="K7" t="s">
         <v>163</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>164</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M7" t="s">
         <v>165</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N7" t="s">
         <v>166</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>167</v>
       </c>
-      <c r="J7" t="s">
+      <c r="P7" t="s">
         <v>168</v>
       </c>
-      <c r="K7" t="s">
+      <c r="Q7" t="s">
         <v>169</v>
       </c>
-      <c r="L7" t="s">
+      <c r="R7" t="s">
         <v>170</v>
       </c>
-      <c r="M7" t="s">
+      <c r="S7" t="s">
         <v>171</v>
       </c>
-      <c r="N7" t="s">
+      <c r="T7" t="s">
         <v>172</v>
       </c>
-      <c r="O7" t="s">
+      <c r="U7" t="s">
         <v>173</v>
-      </c>
-      <c r="P7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>175</v>
-      </c>
-      <c r="R7" t="s">
-        <v>176</v>
-      </c>
-      <c r="S7" t="s">
-        <v>177</v>
-      </c>
-      <c r="T7" t="s">
-        <v>178</v>
-      </c>
-      <c r="U7" t="s">
-        <v>179</v>
       </c>
       <c r="V7">
         <v>4.5199999999999996</v>
@@ -2792,67 +2792,67 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" t="s">
         <v>180</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H8" t="s">
         <v>181</v>
       </c>
-      <c r="C8" t="s">
+      <c r="I8" t="s">
         <v>182</v>
       </c>
-      <c r="D8" t="s">
+      <c r="J8" t="s">
         <v>183</v>
       </c>
-      <c r="E8" t="s">
+      <c r="K8" t="s">
         <v>184</v>
       </c>
-      <c r="F8" t="s">
+      <c r="L8" t="s">
         <v>185</v>
       </c>
-      <c r="G8" t="s">
+      <c r="M8" t="s">
         <v>186</v>
       </c>
-      <c r="H8" t="s">
+      <c r="N8" t="s">
         <v>187</v>
       </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
         <v>188</v>
       </c>
-      <c r="J8" t="s">
+      <c r="P8" t="s">
         <v>189</v>
       </c>
-      <c r="K8" t="s">
+      <c r="Q8" t="s">
         <v>190</v>
       </c>
-      <c r="L8" t="s">
+      <c r="R8" t="s">
         <v>191</v>
       </c>
-      <c r="M8" t="s">
+      <c r="S8" t="s">
         <v>192</v>
       </c>
-      <c r="N8" t="s">
+      <c r="T8" t="s">
         <v>193</v>
       </c>
-      <c r="O8" t="s">
+      <c r="U8" t="s">
         <v>194</v>
-      </c>
-      <c r="P8" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>196</v>
-      </c>
-      <c r="R8" t="s">
-        <v>197</v>
-      </c>
-      <c r="S8" t="s">
-        <v>198</v>
-      </c>
-      <c r="T8" t="s">
-        <v>199</v>
-      </c>
-      <c r="U8" t="s">
-        <v>200</v>
       </c>
       <c r="V8">
         <v>28.15</v>
@@ -2866,67 +2866,67 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
         <v>201</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
         <v>202</v>
       </c>
-      <c r="C9" t="s">
+      <c r="I9" t="s">
         <v>203</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J9" t="s">
         <v>204</v>
       </c>
-      <c r="E9" t="s">
+      <c r="K9" t="s">
         <v>205</v>
       </c>
-      <c r="F9" t="s">
+      <c r="L9" t="s">
         <v>206</v>
       </c>
-      <c r="G9" t="s">
+      <c r="M9" t="s">
         <v>207</v>
       </c>
-      <c r="H9" t="s">
+      <c r="N9" t="s">
         <v>208</v>
       </c>
-      <c r="I9" t="s">
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s">
         <v>209</v>
       </c>
-      <c r="J9" t="s">
+      <c r="Q9" t="s">
         <v>210</v>
       </c>
-      <c r="K9" t="s">
+      <c r="R9" t="s">
         <v>211</v>
       </c>
-      <c r="L9" t="s">
+      <c r="S9" t="s">
         <v>212</v>
       </c>
-      <c r="M9" t="s">
+      <c r="T9" t="s">
         <v>213</v>
       </c>
-      <c r="N9" t="s">
+      <c r="U9" t="s">
         <v>214</v>
-      </c>
-      <c r="O9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>216</v>
-      </c>
-      <c r="R9" t="s">
-        <v>217</v>
-      </c>
-      <c r="S9" t="s">
-        <v>218</v>
-      </c>
-      <c r="T9" t="s">
-        <v>219</v>
-      </c>
-      <c r="U9" t="s">
-        <v>220</v>
       </c>
       <c r="V9">
         <v>22.35</v>
@@ -2940,67 +2940,67 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" t="s">
         <v>221</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H10" t="s">
         <v>222</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I10" t="s">
         <v>223</v>
       </c>
-      <c r="D10" t="s">
+      <c r="J10" t="s">
         <v>224</v>
       </c>
-      <c r="E10" t="s">
+      <c r="K10" t="s">
         <v>225</v>
       </c>
-      <c r="F10" t="s">
+      <c r="L10" t="s">
         <v>226</v>
       </c>
-      <c r="G10" t="s">
+      <c r="M10" t="s">
         <v>227</v>
       </c>
-      <c r="H10" t="s">
+      <c r="N10" t="s">
         <v>228</v>
       </c>
-      <c r="I10" t="s">
+      <c r="O10" t="s">
         <v>229</v>
       </c>
-      <c r="J10" t="s">
+      <c r="P10" t="s">
         <v>230</v>
       </c>
-      <c r="K10" t="s">
+      <c r="Q10" t="s">
         <v>231</v>
       </c>
-      <c r="L10" t="s">
+      <c r="R10" t="s">
         <v>232</v>
       </c>
-      <c r="M10" t="s">
+      <c r="S10" t="s">
         <v>233</v>
       </c>
-      <c r="N10" t="s">
+      <c r="T10" t="s">
         <v>234</v>
       </c>
-      <c r="O10" t="s">
+      <c r="U10" t="s">
         <v>235</v>
-      </c>
-      <c r="P10" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>237</v>
-      </c>
-      <c r="R10" t="s">
-        <v>238</v>
-      </c>
-      <c r="S10" t="s">
-        <v>239</v>
-      </c>
-      <c r="T10" t="s">
-        <v>240</v>
-      </c>
-      <c r="U10" t="s">
-        <v>241</v>
       </c>
       <c r="V10">
         <v>47.69</v>
@@ -3014,67 +3014,67 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" t="s">
         <v>242</v>
       </c>
-      <c r="B11" t="s">
+      <c r="H11" t="s">
         <v>243</v>
       </c>
-      <c r="C11" t="s">
+      <c r="I11" t="s">
         <v>244</v>
       </c>
-      <c r="D11" t="s">
+      <c r="J11" t="s">
         <v>245</v>
       </c>
-      <c r="E11" t="s">
+      <c r="K11" t="s">
         <v>246</v>
       </c>
-      <c r="F11" t="s">
+      <c r="L11" t="s">
         <v>247</v>
       </c>
-      <c r="G11" t="s">
+      <c r="M11" t="s">
         <v>248</v>
       </c>
-      <c r="H11" t="s">
+      <c r="N11" t="s">
         <v>249</v>
       </c>
-      <c r="I11" t="s">
+      <c r="O11" t="s">
+        <v>188</v>
+      </c>
+      <c r="P11" t="s">
         <v>250</v>
       </c>
-      <c r="J11" t="s">
+      <c r="Q11" t="s">
         <v>251</v>
       </c>
-      <c r="K11" t="s">
+      <c r="R11" t="s">
         <v>252</v>
       </c>
-      <c r="L11" t="s">
+      <c r="S11" t="s">
         <v>253</v>
       </c>
-      <c r="M11" t="s">
+      <c r="T11" t="s">
         <v>254</v>
       </c>
-      <c r="N11" t="s">
+      <c r="U11" t="s">
         <v>255</v>
-      </c>
-      <c r="O11" t="s">
-        <v>194</v>
-      </c>
-      <c r="P11" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>257</v>
-      </c>
-      <c r="R11" t="s">
-        <v>258</v>
-      </c>
-      <c r="S11" t="s">
-        <v>259</v>
-      </c>
-      <c r="T11" t="s">
-        <v>260</v>
-      </c>
-      <c r="U11" t="s">
-        <v>261</v>
       </c>
       <c r="V11">
         <v>25.73</v>
@@ -3088,67 +3088,67 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" t="s">
         <v>262</v>
       </c>
-      <c r="B12" t="s">
+      <c r="H12" t="s">
         <v>263</v>
       </c>
-      <c r="C12" t="s">
+      <c r="I12" t="s">
         <v>264</v>
       </c>
-      <c r="D12" t="s">
+      <c r="J12" t="s">
         <v>265</v>
       </c>
-      <c r="E12" t="s">
+      <c r="K12" t="s">
         <v>266</v>
       </c>
-      <c r="F12" t="s">
+      <c r="L12" t="s">
         <v>267</v>
       </c>
-      <c r="G12" t="s">
+      <c r="M12" t="s">
         <v>268</v>
       </c>
-      <c r="H12" t="s">
+      <c r="N12" t="s">
         <v>269</v>
       </c>
-      <c r="I12" t="s">
+      <c r="O12" t="s">
         <v>270</v>
       </c>
-      <c r="J12" t="s">
+      <c r="P12" t="s">
         <v>271</v>
       </c>
-      <c r="K12" t="s">
+      <c r="Q12" t="s">
         <v>272</v>
       </c>
-      <c r="L12" t="s">
+      <c r="R12" t="s">
         <v>273</v>
       </c>
-      <c r="M12" t="s">
+      <c r="S12" t="s">
         <v>274</v>
       </c>
-      <c r="N12" t="s">
+      <c r="T12" t="s">
         <v>275</v>
       </c>
-      <c r="O12" t="s">
+      <c r="U12" t="s">
         <v>276</v>
-      </c>
-      <c r="P12" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>278</v>
-      </c>
-      <c r="R12" t="s">
-        <v>279</v>
-      </c>
-      <c r="S12" t="s">
-        <v>280</v>
-      </c>
-      <c r="T12" t="s">
-        <v>281</v>
-      </c>
-      <c r="U12" t="s">
-        <v>282</v>
       </c>
       <c r="V12">
         <v>4.78</v>
@@ -3162,67 +3162,67 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" t="s">
         <v>283</v>
       </c>
-      <c r="B13" t="s">
+      <c r="H13" t="s">
         <v>284</v>
       </c>
-      <c r="C13" t="s">
+      <c r="I13" t="s">
         <v>285</v>
       </c>
-      <c r="D13" t="s">
+      <c r="J13" t="s">
         <v>286</v>
       </c>
-      <c r="E13" t="s">
+      <c r="K13" t="s">
         <v>287</v>
       </c>
-      <c r="F13" t="s">
+      <c r="L13" t="s">
         <v>288</v>
       </c>
-      <c r="G13" t="s">
+      <c r="M13" t="s">
         <v>289</v>
       </c>
-      <c r="H13" t="s">
+      <c r="N13" t="s">
         <v>290</v>
       </c>
-      <c r="I13" t="s">
+      <c r="O13" t="s">
+        <v>167</v>
+      </c>
+      <c r="P13" t="s">
         <v>291</v>
       </c>
-      <c r="J13" t="s">
+      <c r="Q13" t="s">
         <v>292</v>
       </c>
-      <c r="K13" t="s">
+      <c r="R13" t="s">
         <v>293</v>
       </c>
-      <c r="L13" t="s">
+      <c r="S13" t="s">
         <v>294</v>
       </c>
-      <c r="M13" t="s">
+      <c r="T13" t="s">
         <v>295</v>
       </c>
-      <c r="N13" t="s">
+      <c r="U13" t="s">
         <v>296</v>
-      </c>
-      <c r="O13" t="s">
-        <v>173</v>
-      </c>
-      <c r="P13" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>298</v>
-      </c>
-      <c r="R13" t="s">
-        <v>299</v>
-      </c>
-      <c r="S13" t="s">
-        <v>300</v>
-      </c>
-      <c r="T13" t="s">
-        <v>301</v>
-      </c>
-      <c r="U13" t="s">
-        <v>302</v>
       </c>
       <c r="V13">
         <v>47.39</v>
@@ -3236,67 +3236,67 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" t="s">
         <v>303</v>
       </c>
-      <c r="B14" t="s">
+      <c r="H14" t="s">
         <v>304</v>
       </c>
-      <c r="C14" t="s">
+      <c r="I14" t="s">
         <v>305</v>
       </c>
-      <c r="D14" t="s">
+      <c r="J14" t="s">
         <v>306</v>
       </c>
-      <c r="E14" t="s">
+      <c r="K14" t="s">
         <v>307</v>
       </c>
-      <c r="F14" t="s">
+      <c r="L14" t="s">
         <v>308</v>
       </c>
-      <c r="G14" t="s">
+      <c r="M14" t="s">
         <v>309</v>
       </c>
-      <c r="H14" t="s">
+      <c r="N14" t="s">
         <v>310</v>
       </c>
-      <c r="I14" t="s">
+      <c r="O14" t="s">
+        <v>270</v>
+      </c>
+      <c r="P14" t="s">
         <v>311</v>
       </c>
-      <c r="J14" t="s">
+      <c r="Q14" t="s">
         <v>312</v>
       </c>
-      <c r="K14" t="s">
+      <c r="R14" t="s">
         <v>313</v>
       </c>
-      <c r="L14" t="s">
+      <c r="S14" t="s">
         <v>314</v>
       </c>
-      <c r="M14" t="s">
+      <c r="T14" t="s">
         <v>315</v>
       </c>
-      <c r="N14" t="s">
+      <c r="U14" t="s">
         <v>316</v>
-      </c>
-      <c r="O14" t="s">
-        <v>276</v>
-      </c>
-      <c r="P14" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>318</v>
-      </c>
-      <c r="R14" t="s">
-        <v>319</v>
-      </c>
-      <c r="S14" t="s">
-        <v>320</v>
-      </c>
-      <c r="T14" t="s">
-        <v>321</v>
-      </c>
-      <c r="U14" t="s">
-        <v>322</v>
       </c>
       <c r="V14">
         <v>18.059999999999999</v>
@@ -3310,67 +3310,67 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" t="s">
+        <v>321</v>
+      </c>
+      <c r="F15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" t="s">
         <v>323</v>
       </c>
-      <c r="B15" t="s">
+      <c r="H15" t="s">
         <v>324</v>
       </c>
-      <c r="C15" t="s">
+      <c r="I15" t="s">
         <v>325</v>
       </c>
-      <c r="D15" t="s">
+      <c r="J15" t="s">
         <v>326</v>
       </c>
-      <c r="E15" t="s">
+      <c r="K15" t="s">
         <v>327</v>
       </c>
-      <c r="F15" t="s">
+      <c r="L15" t="s">
         <v>328</v>
       </c>
-      <c r="G15" t="s">
+      <c r="M15" t="s">
         <v>329</v>
       </c>
-      <c r="H15" t="s">
+      <c r="N15" t="s">
         <v>330</v>
       </c>
-      <c r="I15" t="s">
+      <c r="O15" t="s">
         <v>331</v>
       </c>
-      <c r="J15" t="s">
+      <c r="P15" t="s">
         <v>332</v>
       </c>
-      <c r="K15" t="s">
+      <c r="Q15" t="s">
         <v>333</v>
       </c>
-      <c r="L15" t="s">
+      <c r="R15" t="s">
         <v>334</v>
       </c>
-      <c r="M15" t="s">
+      <c r="S15" t="s">
         <v>335</v>
       </c>
-      <c r="N15" t="s">
+      <c r="T15" t="s">
         <v>336</v>
       </c>
-      <c r="O15" t="s">
+      <c r="U15" t="s">
         <v>337</v>
-      </c>
-      <c r="P15" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>339</v>
-      </c>
-      <c r="R15" t="s">
-        <v>340</v>
-      </c>
-      <c r="S15" t="s">
-        <v>341</v>
-      </c>
-      <c r="T15" t="s">
-        <v>342</v>
-      </c>
-      <c r="U15" t="s">
-        <v>343</v>
       </c>
       <c r="V15">
         <v>2.5099999999999998</v>
@@ -3392,7 +3392,7 @@
   <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3403,156 +3403,156 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -3564,10 +3564,10 @@
         <v>4.09</v>
       </c>
       <c r="F2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -3579,85 +3579,85 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P2" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q2" t="s">
         <v>394</v>
       </c>
-      <c r="L2" t="s">
+      <c r="R2" t="s">
         <v>395</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
         <v>396</v>
       </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
         <v>397</v>
       </c>
-      <c r="O2" t="s">
+      <c r="U2" t="s">
         <v>398</v>
       </c>
-      <c r="P2" t="s">
+      <c r="V2" t="s">
         <v>399</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="W2" t="s">
         <v>400</v>
       </c>
-      <c r="R2" t="s">
+      <c r="X2" t="s">
         <v>401</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Y2" t="s">
         <v>402</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Z2" t="s">
         <v>403</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>404</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AB2" t="s">
         <v>405</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AC2" t="s">
         <v>406</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AD2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE2" t="s">
         <v>407</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AF2" t="s">
         <v>408</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AG2" t="s">
         <v>409</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AH2" t="s">
         <v>410</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AI2" t="s">
         <v>411</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AJ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" t="s">
         <v>412</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>524</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>413</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>414</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>415</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>416</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>417</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>418</v>
       </c>
       <c r="AL2" t="b">
         <v>1</v>
@@ -3666,28 +3666,28 @@
         <v>1</v>
       </c>
       <c r="AN2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AO2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AP2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AQ2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AR2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AS2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AT2">
         <v>2.8</v>
       </c>
       <c r="AU2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AV2" s="6" t="b">
         <v>1</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3710,10 +3710,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="F3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -3725,85 +3725,85 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
+        <v>423</v>
+      </c>
+      <c r="L3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O3" t="s">
+        <v>427</v>
+      </c>
+      <c r="P3" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q3" t="s">
         <v>429</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
         <v>430</v>
       </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
         <v>431</v>
       </c>
-      <c r="N3" t="s">
+      <c r="T3" t="s">
         <v>432</v>
       </c>
-      <c r="O3" t="s">
+      <c r="U3" t="s">
         <v>433</v>
       </c>
-      <c r="P3" t="s">
+      <c r="V3" t="s">
         <v>434</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="W3" t="s">
         <v>435</v>
       </c>
-      <c r="R3" t="s">
+      <c r="X3" t="s">
         <v>436</v>
       </c>
-      <c r="S3" t="s">
+      <c r="Y3" t="s">
         <v>437</v>
       </c>
-      <c r="T3" t="s">
+      <c r="Z3" t="s">
         <v>438</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AA3" t="s">
         <v>439</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AB3" t="s">
         <v>440</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AC3" t="s">
         <v>441</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AD3" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE3" t="s">
         <v>442</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AF3" t="s">
         <v>443</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AG3" t="s">
         <v>444</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AH3" t="s">
         <v>445</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AI3" t="s">
         <v>446</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AJ3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK3" t="s">
         <v>447</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>525</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>448</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>449</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>450</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>451</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>452</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>453</v>
       </c>
       <c r="AL3" t="b">
         <v>1</v>
@@ -3812,28 +3812,28 @@
         <v>1</v>
       </c>
       <c r="AN3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AO3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AP3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AQ3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AR3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AS3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AT3">
         <v>2.74</v>
       </c>
       <c r="AU3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AV3" t="b">
         <v>0</v>
@@ -3841,10 +3841,10 @@
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>3.08</v>
       </c>
       <c r="F4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -3871,85 +3871,85 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
+        <v>458</v>
+      </c>
+      <c r="L4" t="s">
+        <v>459</v>
+      </c>
+      <c r="M4" t="s">
+        <v>460</v>
+      </c>
+      <c r="N4" t="s">
+        <v>461</v>
+      </c>
+      <c r="O4" t="s">
+        <v>462</v>
+      </c>
+      <c r="P4" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q4" t="s">
         <v>464</v>
       </c>
-      <c r="L4" t="s">
+      <c r="R4" t="s">
         <v>465</v>
       </c>
-      <c r="M4" t="s">
+      <c r="S4" t="s">
         <v>466</v>
       </c>
-      <c r="N4" t="s">
+      <c r="T4" t="s">
         <v>467</v>
       </c>
-      <c r="O4" t="s">
+      <c r="U4" t="s">
         <v>468</v>
       </c>
-      <c r="P4" t="s">
+      <c r="V4" t="s">
         <v>469</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="W4" t="s">
         <v>470</v>
       </c>
-      <c r="R4" t="s">
+      <c r="X4" t="s">
         <v>471</v>
       </c>
-      <c r="S4" t="s">
+      <c r="Y4" t="s">
         <v>472</v>
       </c>
-      <c r="T4" t="s">
+      <c r="Z4" t="s">
         <v>473</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AA4" t="s">
         <v>474</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AB4" t="s">
         <v>475</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AC4" t="s">
         <v>476</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AD4" t="s">
+        <v>520</v>
+      </c>
+      <c r="AE4" t="s">
         <v>477</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AF4" t="s">
         <v>478</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AG4" t="s">
         <v>479</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AH4" t="s">
         <v>480</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AI4" t="s">
         <v>481</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AJ4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK4" t="s">
         <v>482</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>526</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>483</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>484</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>485</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>486</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>487</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>488</v>
       </c>
       <c r="AL4" t="b">
         <v>1</v>
@@ -3958,28 +3958,28 @@
         <v>5</v>
       </c>
       <c r="AN4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AO4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AP4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AQ4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AR4" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AS4" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AT4">
         <v>2.19</v>
       </c>
       <c r="AU4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AV4" s="6" t="b">
         <v>1</v>
@@ -4007,170 +4007,170 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C4" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C5" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C6" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D6" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D8" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D9" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D10" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B11" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C11" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D11" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D12" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/src/mongodb/xlsx/data.xlsx
+++ b/src/mongodb/xlsx/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -1649,9 +1649,6 @@
     <t>{'영양소명_4': 5, '영양소명_9': 4}</t>
   </si>
   <si>
-    <t>{'영양소명_6': 4, '영양소명_3': 0}</t>
-  </si>
-  <si>
     <t>{'영양소명_6': -5, '영양소명_4': -3, '영양소명_5': 1, '영양소명_8': -5}</t>
   </si>
   <si>
@@ -1677,6 +1674,9 @@
   </si>
   <si>
     <t>{'2017-06-05': {'식품명_2': -2, '식품명_4': -1}, '2017-06-08': {'식품명_2': -2, '식품명_5': 4, '식품명_4': -1}}</t>
+  </si>
+  <si>
+    <t>{'영양소명_6': 4, '영양소명_3': 1}</t>
   </si>
 </sst>
 </file>
@@ -2170,13 +2170,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F2">
         <v>50</v>
@@ -2203,7 +2203,7 @@
         <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O2">
         <v>180</v>
@@ -2217,13 +2217,13 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F3">
         <v>49</v>
@@ -2250,7 +2250,7 @@
         <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O3">
         <v>170</v>
@@ -3391,7 +3391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3994,15 +3994,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="80" customWidth="1"/>
+    <col min="4" max="4" width="104.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4114,7 +4115,7 @@
         <v>526</v>
       </c>
       <c r="D8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4170,7 +4171,7 @@
         <v>529</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/src/mongodb/xlsx/data.xlsx
+++ b/src/mongodb/xlsx/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -3391,8 +3391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3994,7 +3994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/src/mongodb/xlsx/data.xlsx
+++ b/src/mongodb/xlsx/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="551">
   <si>
     <t>ID</t>
   </si>
@@ -1677,6 +1677,12 @@
   </si>
   <si>
     <t>{'영양소명_6': 4, '영양소명_3': 1}</t>
+  </si>
+  <si>
+    <t>식품분류인덱스</t>
+  </si>
+  <si>
+    <t>영양소분류인덱스</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1778,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1790,6 +1796,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2099,20 +2108,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.5" customWidth="1"/>
+    <col min="13" max="13" width="67.1640625" customWidth="1"/>
+    <col min="14" max="14" width="59.6640625" customWidth="1"/>
+    <col min="15" max="15" width="83.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -2122,44 +2135,44 @@
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -2169,44 +2182,44 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>180</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>540</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>542</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>544</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>546</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>540</v>
-      </c>
-      <c r="O2">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -2216,44 +2229,49 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>170</v>
+      </c>
+      <c r="G3">
+        <v>49</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>541</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
         <v>543</v>
       </c>
-      <c r="D3" t="s">
+      <c r="N3" t="s">
         <v>545</v>
       </c>
-      <c r="E3" t="s">
+      <c r="O3" t="s">
         <v>547</v>
       </c>
-      <c r="F3">
-        <v>49</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>541</v>
-      </c>
-      <c r="O3">
-        <v>170</v>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2264,44 +2282,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="14" width="20.5" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="18.5" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="22" max="22" width="19.83203125" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" customWidth="1"/>
+    <col min="24" max="24" width="17.83203125" customWidth="1"/>
+    <col min="25" max="25" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>35</v>
@@ -2310,72 +2354,75 @@
         <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
       </c>
       <c r="K2" t="s">
         <v>59</v>
@@ -2384,72 +2431,75 @@
         <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>67</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>68</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>69</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3.39</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>49.91</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>31.56</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>74</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>80</v>
@@ -2458,72 +2508,75 @@
         <v>81</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>86</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>87</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>88</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>89</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>90</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>21.24</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>44.71</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>6.86</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>95</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" t="s">
-        <v>100</v>
       </c>
       <c r="K4" t="s">
         <v>101</v>
@@ -2532,72 +2585,75 @@
         <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W4">
+        <v>3.35</v>
+      </c>
+      <c r="X4">
+        <v>7.44</v>
+      </c>
+      <c r="Y4">
+        <v>31.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
         <v>105</v>
       </c>
-      <c r="P4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>107</v>
-      </c>
-      <c r="R4" t="s">
-        <v>108</v>
-      </c>
-      <c r="S4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T4" t="s">
-        <v>110</v>
-      </c>
-      <c r="U4" t="s">
-        <v>111</v>
-      </c>
-      <c r="V4">
-        <v>3.35</v>
-      </c>
-      <c r="W4">
-        <v>7.44</v>
-      </c>
-      <c r="X4">
-        <v>31.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
         <v>114</v>
       </c>
-      <c r="D5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>116</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>117</v>
-      </c>
-      <c r="G5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" t="s">
-        <v>121</v>
       </c>
       <c r="K5" t="s">
         <v>122</v>
@@ -2606,72 +2662,75 @@
         <v>123</v>
       </c>
       <c r="M5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="P5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" t="s">
         <v>126</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>127</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>128</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>129</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>130</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>131</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>40.840000000000003</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>27.6</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>40.74</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" t="s">
         <v>134</v>
       </c>
-      <c r="D6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>136</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>137</v>
-      </c>
-      <c r="G6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" t="s">
-        <v>141</v>
       </c>
       <c r="K6" t="s">
         <v>142</v>
@@ -2680,72 +2739,75 @@
         <v>143</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q6" t="s">
         <v>147</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>148</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>149</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>150</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>151</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>152</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>31.25</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>42.49</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>49.44</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s">
         <v>155</v>
       </c>
-      <c r="D7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>157</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>158</v>
-      </c>
-      <c r="G7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J7" t="s">
-        <v>162</v>
       </c>
       <c r="K7" t="s">
         <v>163</v>
@@ -2754,72 +2816,75 @@
         <v>164</v>
       </c>
       <c r="M7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q7" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>169</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>170</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>171</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>172</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>173</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>4.5199999999999996</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>37.49</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" t="s">
         <v>176</v>
       </c>
-      <c r="D8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>178</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>179</v>
-      </c>
-      <c r="G8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J8" t="s">
-        <v>183</v>
       </c>
       <c r="K8" t="s">
         <v>184</v>
@@ -2828,72 +2893,75 @@
         <v>185</v>
       </c>
       <c r="M8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P8" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" t="s">
         <v>189</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>190</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>191</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>192</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>193</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>194</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>28.15</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>26.69</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>21.62</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="s">
         <v>197</v>
       </c>
-      <c r="D9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>199</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>200</v>
-      </c>
-      <c r="G9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H9" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" t="s">
-        <v>203</v>
-      </c>
-      <c r="J9" t="s">
-        <v>204</v>
       </c>
       <c r="K9" t="s">
         <v>205</v>
@@ -2902,72 +2970,75 @@
         <v>206</v>
       </c>
       <c r="M9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="P9" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q9" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>210</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>211</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>212</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>213</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>214</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>22.35</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>8</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>43.59</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" t="s">
         <v>217</v>
       </c>
-      <c r="D10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
         <v>219</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" t="s">
         <v>220</v>
-      </c>
-      <c r="G10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" t="s">
-        <v>222</v>
-      </c>
-      <c r="I10" t="s">
-        <v>223</v>
-      </c>
-      <c r="J10" t="s">
-        <v>224</v>
       </c>
       <c r="K10" t="s">
         <v>225</v>
@@ -2976,72 +3047,75 @@
         <v>226</v>
       </c>
       <c r="M10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q10" t="s">
         <v>230</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>231</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>232</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>233</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>234</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>235</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>47.69</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>41.53</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>22.01</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H11" t="s">
         <v>238</v>
       </c>
-      <c r="D11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>240</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>241</v>
-      </c>
-      <c r="G11" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" t="s">
-        <v>243</v>
-      </c>
-      <c r="I11" t="s">
-        <v>244</v>
-      </c>
-      <c r="J11" t="s">
-        <v>245</v>
       </c>
       <c r="K11" t="s">
         <v>246</v>
@@ -3050,72 +3124,75 @@
         <v>247</v>
       </c>
       <c r="M11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O11" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="P11" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q11" t="s">
         <v>250</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>251</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>252</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>253</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>254</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>255</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>25.73</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>20.22</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>39.83</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" t="s">
         <v>258</v>
       </c>
-      <c r="D12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
         <v>260</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>261</v>
-      </c>
-      <c r="G12" t="s">
-        <v>262</v>
-      </c>
-      <c r="H12" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" t="s">
-        <v>264</v>
-      </c>
-      <c r="J12" t="s">
-        <v>265</v>
       </c>
       <c r="K12" t="s">
         <v>266</v>
@@ -3124,72 +3201,75 @@
         <v>267</v>
       </c>
       <c r="M12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q12" t="s">
         <v>271</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>272</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>273</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>274</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>275</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>276</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>4.78</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>35.36</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>15.09</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" t="s">
         <v>279</v>
       </c>
-      <c r="D13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
         <v>281</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>282</v>
-      </c>
-      <c r="G13" t="s">
-        <v>283</v>
-      </c>
-      <c r="H13" t="s">
-        <v>284</v>
-      </c>
-      <c r="I13" t="s">
-        <v>285</v>
-      </c>
-      <c r="J13" t="s">
-        <v>286</v>
       </c>
       <c r="K13" t="s">
         <v>287</v>
@@ -3198,72 +3278,75 @@
         <v>288</v>
       </c>
       <c r="M13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="N13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O13" t="s">
-        <v>167</v>
+        <v>286</v>
       </c>
       <c r="P13" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q13" t="s">
         <v>291</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>292</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>293</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>294</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>295</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>296</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>47.39</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>15.54</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>27.28</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" t="s">
         <v>299</v>
       </c>
-      <c r="D14" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
         <v>301</v>
       </c>
-      <c r="F14" t="s">
+      <c r="J14" t="s">
         <v>302</v>
-      </c>
-      <c r="G14" t="s">
-        <v>303</v>
-      </c>
-      <c r="H14" t="s">
-        <v>304</v>
-      </c>
-      <c r="I14" t="s">
-        <v>305</v>
-      </c>
-      <c r="J14" t="s">
-        <v>306</v>
       </c>
       <c r="K14" t="s">
         <v>307</v>
@@ -3272,72 +3355,75 @@
         <v>308</v>
       </c>
       <c r="M14" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="N14" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="O14" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="P14" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" t="s">
         <v>311</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>312</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>313</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>314</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>315</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>316</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>18.059999999999999</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>14</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>5.29</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15" t="s">
+        <v>320</v>
+      </c>
+      <c r="H15" t="s">
         <v>319</v>
       </c>
-      <c r="D15" t="s">
-        <v>320</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
         <v>321</v>
       </c>
-      <c r="F15" t="s">
+      <c r="J15" t="s">
         <v>322</v>
-      </c>
-      <c r="G15" t="s">
-        <v>323</v>
-      </c>
-      <c r="H15" t="s">
-        <v>324</v>
-      </c>
-      <c r="I15" t="s">
-        <v>325</v>
-      </c>
-      <c r="J15" t="s">
-        <v>326</v>
       </c>
       <c r="K15" t="s">
         <v>327</v>
@@ -3346,39 +3432,42 @@
         <v>328</v>
       </c>
       <c r="M15" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="N15" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="O15" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P15" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q15" t="s">
         <v>332</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>333</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>334</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>335</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>336</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>337</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2.5099999999999998</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>47.15</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>41.92</v>
       </c>
     </row>
@@ -3389,54 +3478,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="30" max="30" width="200.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.5" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="19.5" customWidth="1"/>
+    <col min="22" max="22" width="16.83203125" customWidth="1"/>
+    <col min="23" max="23" width="23.83203125" customWidth="1"/>
+    <col min="24" max="24" width="28.33203125" customWidth="1"/>
+    <col min="25" max="25" width="20.1640625" customWidth="1"/>
+    <col min="27" max="27" width="18.6640625" customWidth="1"/>
+    <col min="28" max="28" width="21.33203125" customWidth="1"/>
+    <col min="29" max="29" width="21.6640625" customWidth="1"/>
+    <col min="30" max="30" width="25" customWidth="1"/>
+    <col min="31" max="31" width="14.1640625" customWidth="1"/>
+    <col min="32" max="32" width="20.6640625" customWidth="1"/>
+    <col min="34" max="34" width="15.1640625" customWidth="1"/>
+    <col min="35" max="35" width="19.6640625" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" customWidth="1"/>
+    <col min="39" max="39" width="13.1640625" customWidth="1"/>
+    <col min="40" max="40" width="14.83203125" customWidth="1"/>
+    <col min="41" max="41" width="16" customWidth="1"/>
+    <col min="42" max="42" width="13.5" customWidth="1"/>
+    <col min="43" max="43" width="17" customWidth="1"/>
+    <col min="44" max="44" width="15.1640625" customWidth="1"/>
+    <col min="45" max="45" width="14.33203125" customWidth="1"/>
+    <col min="46" max="46" width="14.1640625" customWidth="1"/>
+    <col min="47" max="47" width="14.33203125" customWidth="1"/>
+    <col min="48" max="48" width="15.1640625" customWidth="1"/>
+    <col min="49" max="49" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>344</v>
+        <v>549</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>350</v>
@@ -3445,144 +3576,147 @@
         <v>351</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>360</v>
+        <v>44</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AW1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>384</v>
-      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B2">
-        <v>-4</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3.3</v>
-      </c>
-      <c r="E2">
-        <v>4.09</v>
+        <v>389</v>
+      </c>
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" t="s">
+        <v>404</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G2" t="s">
-        <v>387</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
+        <v>405</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J2" t="s">
+        <v>394</v>
       </c>
       <c r="K2" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="L2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M2" t="s">
         <v>390</v>
@@ -3591,144 +3725,147 @@
         <v>391</v>
       </c>
       <c r="O2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P2" t="s">
         <v>392</v>
       </c>
-      <c r="P2" t="s">
-        <v>393</v>
-      </c>
       <c r="Q2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="R2" t="s">
+        <v>398</v>
+      </c>
+      <c r="S2" t="s">
         <v>395</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>396</v>
       </c>
-      <c r="T2" t="s">
-        <v>397</v>
-      </c>
       <c r="U2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="V2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="W2" t="s">
-        <v>400</v>
+        <v>68</v>
       </c>
       <c r="X2" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="Y2" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="Z2" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>404</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>405</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>406</v>
-      </c>
-      <c r="AD2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA2">
+        <v>-4</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>4.09</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG2">
+        <v>2.8</v>
+      </c>
+      <c r="AH2">
+        <v>3.3</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW2" t="s">
         <v>518</v>
       </c>
-      <c r="AE2" t="s">
-        <v>407</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>409</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>410</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>411</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>412</v>
-      </c>
-      <c r="AL2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>413</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>414</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>415</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>417</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>418</v>
-      </c>
-      <c r="AT2">
-        <v>2.8</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>419</v>
-      </c>
-      <c r="AV2" s="6" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3">
-        <v>-3</v>
-      </c>
-      <c r="C3" t="b">
+        <v>424</v>
+      </c>
+      <c r="B3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="E3">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
+      <c r="H3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J3" t="s">
+        <v>429</v>
       </c>
       <c r="K3" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="L3" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M3" t="s">
         <v>425</v>
@@ -3737,144 +3874,147 @@
         <v>426</v>
       </c>
       <c r="O3" t="s">
+        <v>428</v>
+      </c>
+      <c r="P3" t="s">
         <v>427</v>
       </c>
-      <c r="P3" t="s">
-        <v>428</v>
-      </c>
       <c r="Q3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="R3" t="s">
+        <v>433</v>
+      </c>
+      <c r="S3" t="s">
         <v>430</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>431</v>
       </c>
-      <c r="T3" t="s">
-        <v>432</v>
-      </c>
       <c r="U3" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="V3" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="W3" t="s">
-        <v>435</v>
+        <v>89</v>
       </c>
       <c r="X3" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="Y3" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="Z3" t="s">
-        <v>438</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>440</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>441</v>
-      </c>
-      <c r="AD3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA3">
+        <v>-3</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG3">
+        <v>2.74</v>
+      </c>
+      <c r="AH3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>442</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>445</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>446</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>448</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>449</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>450</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>451</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>452</v>
+      </c>
+      <c r="AW3" t="s">
         <v>519</v>
       </c>
-      <c r="AE3" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>443</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>444</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>445</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>446</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>447</v>
-      </c>
-      <c r="AL3" t="b">
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>448</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>449</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>450</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>451</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>452</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AT3">
-        <v>2.74</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>454</v>
-      </c>
-      <c r="AV3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>2.04</v>
-      </c>
-      <c r="E4">
-        <v>3.08</v>
-      </c>
-      <c r="F4" t="s">
-        <v>456</v>
-      </c>
-      <c r="G4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
+      <c r="H4" t="s">
+        <v>489</v>
+      </c>
+      <c r="I4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J4" t="s">
+        <v>464</v>
       </c>
       <c r="K4" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="L4" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M4" t="s">
         <v>460</v>
@@ -3883,107 +4023,120 @@
         <v>461</v>
       </c>
       <c r="O4" t="s">
+        <v>463</v>
+      </c>
+      <c r="P4" t="s">
         <v>462</v>
       </c>
-      <c r="P4" t="s">
-        <v>463</v>
-      </c>
       <c r="Q4" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="R4" t="s">
+        <v>468</v>
+      </c>
+      <c r="S4" t="s">
         <v>465</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>466</v>
       </c>
-      <c r="T4" t="s">
-        <v>467</v>
-      </c>
       <c r="U4" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="V4" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="W4" t="s">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="X4" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="Y4" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Z4" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>474</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>3.08</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG4">
+        <v>2.19</v>
+      </c>
+      <c r="AH4">
+        <v>2.04</v>
+      </c>
+      <c r="AI4">
+        <v>5</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>483</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>484</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>485</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>486</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>487</v>
+      </c>
+      <c r="AW4" t="s">
         <v>520</v>
       </c>
-      <c r="AE4" t="s">
-        <v>477</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>478</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>480</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>481</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>482</v>
-      </c>
-      <c r="AL4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>5</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>483</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>484</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>485</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>486</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>487</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>488</v>
-      </c>
-      <c r="AT4">
-        <v>2.19</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>489</v>
-      </c>
-      <c r="AV4" s="6" t="b">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7"/>
+      <c r="J7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="AK7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mongodb/xlsx/data.xlsx
+++ b/src/mongodb/xlsx/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="547">
   <si>
     <t>ID</t>
   </si>
@@ -1235,15 +1235,6 @@
     <t>식품명중국어_0</t>
   </si>
   <si>
-    <t>식품분류1_0</t>
-  </si>
-  <si>
-    <t>식품분류2_0</t>
-  </si>
-  <si>
-    <t>식품분류3_0</t>
-  </si>
-  <si>
     <t>식품분류4_0</t>
   </si>
   <si>
@@ -1340,21 +1331,6 @@
     <t>식품명중국어_1</t>
   </si>
   <si>
-    <t>식품분류1_1</t>
-  </si>
-  <si>
-    <t>식품분류2_1</t>
-  </si>
-  <si>
-    <t>식품분류3_1</t>
-  </si>
-  <si>
-    <t>식품분류4_1</t>
-  </si>
-  <si>
-    <t>식품분류5_1</t>
-  </si>
-  <si>
     <t>식품설명_1</t>
   </si>
   <si>
@@ -1683,6 +1659,18 @@
   </si>
   <si>
     <t>영양소분류인덱스</t>
+  </si>
+  <si>
+    <t>식품명_3</t>
+  </si>
+  <si>
+    <t>식품명_4</t>
+  </si>
+  <si>
+    <t>학명_3</t>
+  </si>
+  <si>
+    <t>학명_4</t>
   </si>
 </sst>
 </file>
@@ -2110,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2183,7 +2171,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -2204,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2213,13 +2201,13 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="N2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="O2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -2230,7 +2218,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -2251,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -2260,13 +2248,13 @@
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="N3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="O3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.2">
@@ -2324,7 +2312,7 @@
         <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -3480,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3552,7 +3540,7 @@
         <v>365</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>383</v>
@@ -3686,28 +3674,28 @@
         <v>389</v>
       </c>
       <c r="B2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" t="s">
         <v>401</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>402</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I2" t="s">
         <v>403</v>
-      </c>
-      <c r="E2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I2" t="s">
-        <v>406</v>
       </c>
       <c r="J2" t="s">
         <v>394</v>
@@ -3752,10 +3740,10 @@
         <v>68</v>
       </c>
       <c r="X2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Y2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Z2" t="s">
         <v>388</v>
@@ -3797,117 +3785,117 @@
         <v>1</v>
       </c>
       <c r="AM2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP2" t="s">
         <v>407</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>408</v>
       </c>
-      <c r="AO2" t="s">
-        <v>409</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>410</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>411</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU2" t="s">
         <v>413</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>414</v>
       </c>
-      <c r="AT2" t="s">
-        <v>415</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>416</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>417</v>
-      </c>
       <c r="AW2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>437</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
-        <v>438</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="F3" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="I3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K3" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" t="s">
+        <v>431</v>
+      </c>
+      <c r="M3" t="s">
+        <v>422</v>
+      </c>
+      <c r="N3" t="s">
+        <v>423</v>
+      </c>
+      <c r="O3" t="s">
+        <v>425</v>
+      </c>
+      <c r="P3" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q3" t="s">
         <v>429</v>
       </c>
-      <c r="K3" t="s">
-        <v>435</v>
-      </c>
-      <c r="L3" t="s">
-        <v>434</v>
-      </c>
-      <c r="M3" t="s">
-        <v>425</v>
-      </c>
-      <c r="N3" t="s">
-        <v>426</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
+        <v>430</v>
+      </c>
+      <c r="S3" t="s">
+        <v>427</v>
+      </c>
+      <c r="T3" t="s">
         <v>428</v>
       </c>
-      <c r="P3" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>432</v>
-      </c>
-      <c r="R3" t="s">
-        <v>433</v>
-      </c>
-      <c r="S3" t="s">
-        <v>430</v>
-      </c>
-      <c r="T3" t="s">
-        <v>431</v>
-      </c>
       <c r="U3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="V3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="W3" t="s">
         <v>89</v>
       </c>
       <c r="X3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="Y3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Z3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AA3">
         <v>-3</v>
@@ -3925,7 +3913,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="AF3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AG3">
         <v>2.74</v>
@@ -3946,117 +3934,117 @@
         <v>0</v>
       </c>
       <c r="AM3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>436</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>437</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>438</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>441</v>
+      </c>
+      <c r="AT3" t="s">
         <v>442</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AU3" t="s">
         <v>443</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AV3" t="s">
         <v>444</v>
       </c>
-      <c r="AP3" t="s">
-        <v>445</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>446</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>448</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>449</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>450</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>451</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>452</v>
-      </c>
       <c r="AW3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>481</v>
+      </c>
+      <c r="I4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J4" t="s">
+        <v>456</v>
+      </c>
+      <c r="K4" t="s">
+        <v>462</v>
+      </c>
+      <c r="L4" t="s">
+        <v>461</v>
+      </c>
+      <c r="M4" t="s">
+        <v>452</v>
+      </c>
+      <c r="N4" t="s">
+        <v>453</v>
+      </c>
+      <c r="O4" t="s">
+        <v>455</v>
+      </c>
+      <c r="P4" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q4" t="s">
         <v>459</v>
       </c>
-      <c r="B4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" t="s">
-        <v>473</v>
-      </c>
-      <c r="E4" t="s">
-        <v>474</v>
-      </c>
-      <c r="F4" t="s">
-        <v>475</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>489</v>
-      </c>
-      <c r="I4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J4" t="s">
-        <v>464</v>
-      </c>
-      <c r="K4" t="s">
-        <v>470</v>
-      </c>
-      <c r="L4" t="s">
-        <v>469</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="R4" t="s">
         <v>460</v>
       </c>
-      <c r="N4" t="s">
-        <v>461</v>
-      </c>
-      <c r="O4" t="s">
-        <v>463</v>
-      </c>
-      <c r="P4" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>467</v>
-      </c>
-      <c r="R4" t="s">
-        <v>468</v>
-      </c>
       <c r="S4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="T4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="U4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V4" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="W4" t="s">
         <v>110</v>
       </c>
       <c r="X4" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="Y4" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="Z4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -4074,7 +4062,7 @@
         <v>3.08</v>
       </c>
       <c r="AF4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="AG4">
         <v>2.19</v>
@@ -4095,37 +4083,95 @@
         <v>1</v>
       </c>
       <c r="AM4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>470</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>472</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>473</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>475</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT4" t="s">
         <v>477</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AU4" t="s">
         <v>478</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AV4" t="s">
         <v>479</v>
       </c>
-      <c r="AP4" t="s">
-        <v>480</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>481</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>483</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>484</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>485</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>486</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>487</v>
-      </c>
       <c r="AW4" t="s">
-        <v>520</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>545</v>
+      </c>
+      <c r="I5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>546</v>
+      </c>
+      <c r="I6" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
@@ -4161,170 +4207,170 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D3" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C6" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D6" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C8" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C9" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D9" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B10" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C10" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D10" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C11" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D11" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C12" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D12" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/src/mongodb/xlsx/data.xlsx
+++ b/src/mongodb/xlsx/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="548">
   <si>
     <t>ID</t>
   </si>
@@ -1671,6 +1671,9 @@
   </si>
   <si>
     <t>학명_4</t>
+  </si>
+  <si>
+    <t>식품명_5</t>
   </si>
 </sst>
 </file>
@@ -1753,8 +1756,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1784,21 +1789,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2098,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3469,7 +3474,7 @@
   <dimension ref="A1:AW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3670,519 +3675,898 @@
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="7">
         <v>-4</v>
       </c>
-      <c r="AB2" t="b">
+      <c r="AB2" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AC2" t="b">
+      <c r="AC2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AD2" t="b">
+      <c r="AD2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="7">
         <v>4.09</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="7">
         <v>2.8</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="7">
         <v>3.3</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="7">
         <v>1</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="7">
         <v>3</v>
       </c>
-      <c r="AK2" t="b">
+      <c r="AK2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AR2" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AS2" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AV2" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="7" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="7">
         <v>-3</v>
       </c>
-      <c r="AB3" t="b">
+      <c r="AB3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AC3" t="b">
+      <c r="AC3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AD3" t="b">
+      <c r="AD3" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="7">
         <v>2.0299999999999998</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="7">
         <v>2.74</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="7">
         <v>4.3499999999999996</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="7">
         <v>1</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="7">
         <v>5</v>
       </c>
-      <c r="AK3" t="b">
+      <c r="AK3" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AL3" t="b">
+      <c r="AL3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV3" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AW3" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="7">
         <v>-1</v>
       </c>
-      <c r="AB4" t="b">
+      <c r="AB4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AC4" t="b">
+      <c r="AC4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AD4" t="b">
+      <c r="AD4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="7">
         <v>3.08</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="7">
         <v>2.19</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="7">
         <v>2.04</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="7">
         <v>5</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="7">
         <v>5</v>
       </c>
-      <c r="AK4" t="b">
+      <c r="AK4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AP4" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AR4" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AT4" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AV4" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AW4" s="7" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
         <v>403</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>-3</v>
+      </c>
+      <c r="AB5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="7" t="s">
         <v>433</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AB6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>3.08</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU6" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AV6" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AW6" s="6" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="7"/>
-      <c r="J7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="AK7" s="1"/>
+      <c r="A7" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AB7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>3.08</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AW7" s="6" t="s">
+        <v>512</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mongodb/xlsx/data.xlsx
+++ b/src/mongodb/xlsx/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -1680,7 +1680,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1716,6 +1716,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1771,7 +1775,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1790,6 +1794,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2103,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2161,7 +2168,7 @@
       <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -3473,7 +3480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/src/mongodb/xlsx/data.xlsx
+++ b/src/mongodb/xlsx/data.xlsx
@@ -1680,7 +1680,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1716,10 +1716,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1775,7 +1771,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1794,9 +1790,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2110,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2135,44 +2128,44 @@
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -2182,44 +2175,44 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>508</v>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>534</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>180</v>
+        <v>538</v>
+      </c>
+      <c r="F2" t="s">
+        <v>536</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
+      <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
         <v>532</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>534</v>
-      </c>
-      <c r="N2" t="s">
-        <v>536</v>
-      </c>
-      <c r="O2" t="s">
-        <v>538</v>
+      <c r="O2">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -2229,44 +2222,44 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>509</v>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>535</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>170</v>
+        <v>539</v>
+      </c>
+      <c r="F3" t="s">
+        <v>537</v>
       </c>
       <c r="G3">
         <v>49</v>
       </c>
-      <c r="H3" t="b">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="b">
+      <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
         <v>533</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>535</v>
-      </c>
-      <c r="N3" t="s">
-        <v>537</v>
-      </c>
-      <c r="O3" t="s">
-        <v>539</v>
+      <c r="O3">
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.2">
